--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Csf3-Csf3r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Csf3-Csf3r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Csf3</t>
+  </si>
+  <si>
+    <t>Csf3r</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Csf3</t>
-  </si>
-  <si>
-    <t>Csf3r</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,93 +522,93 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.1959053333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.587716</v>
+      </c>
+      <c r="I2">
+        <v>0.1804479236004844</v>
+      </c>
+      <c r="J2">
+        <v>0.1804479236004844</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1.414388666666667</v>
-      </c>
-      <c r="H2">
-        <v>4.243166</v>
-      </c>
-      <c r="I2">
-        <v>0.5586801917371232</v>
-      </c>
-      <c r="J2">
-        <v>0.5586801917371234</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>300.1573296666667</v>
+        <v>27.69500466666667</v>
       </c>
       <c r="N2">
-        <v>900.4719890000001</v>
+        <v>83.085014</v>
       </c>
       <c r="O2">
-        <v>0.8617605198060754</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.8617605198060754</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>424.5391252974639</v>
+        <v>5.425599120891555</v>
       </c>
       <c r="R2">
-        <v>3820.852127677175</v>
+        <v>48.830392088024</v>
       </c>
       <c r="S2">
-        <v>0.4814485324367412</v>
+        <v>0.1804479236004844</v>
       </c>
       <c r="T2">
-        <v>0.4814485324367413</v>
+        <v>0.1804479236004844</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.414388666666667</v>
+        <v>0.6471403333333333</v>
       </c>
       <c r="H3">
-        <v>4.243166</v>
+        <v>1.941421</v>
       </c>
       <c r="I3">
-        <v>0.5586801917371232</v>
+        <v>0.5960793789591843</v>
       </c>
       <c r="J3">
-        <v>0.5586801917371234</v>
+        <v>0.5960793789591843</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,400 +617,90 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>48.149796</v>
+        <v>27.69500466666667</v>
       </c>
       <c r="N3">
-        <v>144.449388</v>
+        <v>83.085014</v>
       </c>
       <c r="O3">
-        <v>0.1382394801939247</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.1382394801939247</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>68.10252576471201</v>
+        <v>17.92255455165489</v>
       </c>
       <c r="R3">
-        <v>612.922731882408</v>
+        <v>161.302990964894</v>
       </c>
       <c r="S3">
-        <v>0.07723165930038209</v>
+        <v>0.5960793789591843</v>
       </c>
       <c r="T3">
-        <v>0.07723165930038209</v>
+        <v>0.5960793789591843</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.6471403333333333</v>
+        <v>0.2426156666666667</v>
       </c>
       <c r="H4">
-        <v>1.941421</v>
+        <v>0.727847</v>
       </c>
       <c r="I4">
-        <v>0.255618907325916</v>
+        <v>0.2234726974403313</v>
       </c>
       <c r="J4">
-        <v>0.255618907325916</v>
+        <v>0.2234726974403313</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>300.1573296666667</v>
+        <v>27.69500466666667</v>
       </c>
       <c r="N4">
-        <v>900.4719890000001</v>
+        <v>83.085014</v>
       </c>
       <c r="O4">
-        <v>0.8617605198060754</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.8617605198060754</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>194.2439143729299</v>
+        <v>6.719242020539777</v>
       </c>
       <c r="R4">
-        <v>1748.195229356369</v>
+        <v>60.473178184858</v>
       </c>
       <c r="S4">
-        <v>0.2202822824494423</v>
+        <v>0.2234726974403313</v>
       </c>
       <c r="T4">
-        <v>0.2202822824494423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.6471403333333333</v>
-      </c>
-      <c r="H5">
-        <v>1.941421</v>
-      </c>
-      <c r="I5">
-        <v>0.255618907325916</v>
-      </c>
-      <c r="J5">
-        <v>0.255618907325916</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>48.149796</v>
-      </c>
-      <c r="N5">
-        <v>144.449388</v>
-      </c>
-      <c r="O5">
-        <v>0.1382394801939247</v>
-      </c>
-      <c r="P5">
-        <v>0.1382394801939247</v>
-      </c>
-      <c r="Q5">
-        <v>31.159675033372</v>
-      </c>
-      <c r="R5">
-        <v>280.437075300348</v>
-      </c>
-      <c r="S5">
-        <v>0.03533662487647363</v>
-      </c>
-      <c r="T5">
-        <v>0.03533662487647362</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.2426156666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.727847</v>
-      </c>
-      <c r="I6">
-        <v>0.09583261685149484</v>
-      </c>
-      <c r="J6">
-        <v>0.09583261685149484</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>300.1573296666667</v>
-      </c>
-      <c r="N6">
-        <v>900.4719890000001</v>
-      </c>
-      <c r="O6">
-        <v>0.8617605198060754</v>
-      </c>
-      <c r="P6">
-        <v>0.8617605198060754</v>
-      </c>
-      <c r="Q6">
-        <v>72.8228706419648</v>
-      </c>
-      <c r="R6">
-        <v>655.4058357776831</v>
-      </c>
-      <c r="S6">
-        <v>0.08258476571232065</v>
-      </c>
-      <c r="T6">
-        <v>0.08258476571232065</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.2426156666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.727847</v>
-      </c>
-      <c r="I7">
-        <v>0.09583261685149484</v>
-      </c>
-      <c r="J7">
-        <v>0.09583261685149484</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>48.149796</v>
-      </c>
-      <c r="N7">
-        <v>144.449388</v>
-      </c>
-      <c r="O7">
-        <v>0.1382394801939247</v>
-      </c>
-      <c r="P7">
-        <v>0.1382394801939247</v>
-      </c>
-      <c r="Q7">
-        <v>11.681894856404</v>
-      </c>
-      <c r="R7">
-        <v>105.137053707636</v>
-      </c>
-      <c r="S7">
-        <v>0.01324785113917419</v>
-      </c>
-      <c r="T7">
-        <v>0.01324785113917419</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.227516</v>
-      </c>
-      <c r="H8">
-        <v>0.682548</v>
-      </c>
-      <c r="I8">
-        <v>0.0898682840854659</v>
-      </c>
-      <c r="J8">
-        <v>0.0898682840854659</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>300.1573296666667</v>
-      </c>
-      <c r="N8">
-        <v>900.4719890000001</v>
-      </c>
-      <c r="O8">
-        <v>0.8617605198060754</v>
-      </c>
-      <c r="P8">
-        <v>0.8617605198060754</v>
-      </c>
-      <c r="Q8">
-        <v>68.29059501644136</v>
-      </c>
-      <c r="R8">
-        <v>614.6153551479721</v>
-      </c>
-      <c r="S8">
-        <v>0.07744493920757115</v>
-      </c>
-      <c r="T8">
-        <v>0.07744493920757115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.227516</v>
-      </c>
-      <c r="H9">
-        <v>0.682548</v>
-      </c>
-      <c r="I9">
-        <v>0.0898682840854659</v>
-      </c>
-      <c r="J9">
-        <v>0.0898682840854659</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>48.149796</v>
-      </c>
-      <c r="N9">
-        <v>144.449388</v>
-      </c>
-      <c r="O9">
-        <v>0.1382394801939247</v>
-      </c>
-      <c r="P9">
-        <v>0.1382394801939247</v>
-      </c>
-      <c r="Q9">
-        <v>10.954848986736</v>
-      </c>
-      <c r="R9">
-        <v>98.59364088062401</v>
-      </c>
-      <c r="S9">
-        <v>0.01242334487789476</v>
-      </c>
-      <c r="T9">
-        <v>0.01242334487789476</v>
+        <v>0.2234726974403313</v>
       </c>
     </row>
   </sheetData>
